--- a/VarexJSmallScaleEvaluation/complex-nesting.NestVarexJ.xlsx
+++ b/VarexJSmallScaleEvaluation/complex-nesting.NestVarexJ.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="complex-nesting.NestVarexJ" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1045,11 +1048,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171562496"/>
-        <c:axId val="145088512"/>
+        <c:axId val="14914048"/>
+        <c:axId val="14763712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171562496"/>
+        <c:axId val="14914048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145088512"/>
+        <c:crossAx val="14763712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1066,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145088512"/>
+        <c:axId val="14763712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171562496"/>
+        <c:crossAx val="14914048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1087,6 +1090,312 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'complex-nesting.NestVarexJ'!$C:$C</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'complex-nesting.NestVarexJ'!$A$1:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="238497280"/>
+        <c:axId val="202579968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="238497280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202579968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="202579968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="238497280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1131,7 +1440,468 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="complex-inc.IncVarexJ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1424,7 +2194,7 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
